--- a/HubSpot/src/main/java/com/qa/testData/hubspot.xlsx
+++ b/HubSpot/src/main/java/com/qa/testData/hubspot.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coxautoinc-my.sharepoint.com/personal/parmod_kumar_coxautoinc_com/Documents/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4446CA5F-A76D-4DEA-834A-AC9B0F2B82C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D4194C5E-42CE-49A1-ABAD-764995C07B55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19530C14-8EC9-4CAE-80D0-B84AB90567DC}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23280" windowHeight="13224" activeTab="1" xr2:uid="{19530C14-8EC9-4CAE-80D0-B84AB90567DC}"/>
   </bookViews>
   <sheets>
     <sheet name="hubspot" sheetId="1" r:id="rId1"/>
+    <sheet name="hubspot1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Email</t>
   </si>
@@ -112,6 +109,57 @@
   </si>
   <si>
     <t>Scientist</t>
+  </si>
+  <si>
+    <t>Braxton</t>
+  </si>
+  <si>
+    <t>Garn</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Dilts</t>
+  </si>
+  <si>
+    <t>Shravya</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Daron</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Andria</t>
+  </si>
+  <si>
+    <t>Harnikar</t>
+  </si>
+  <si>
+    <t>braxton.garn@hubspot.com</t>
+  </si>
+  <si>
+    <t>ian.dilts@hubspot.com</t>
+  </si>
+  <si>
+    <t>shravya.harnikar@hubspot.com</t>
+  </si>
+  <si>
+    <t>eva.andria@hubspot.com</t>
+  </si>
+  <si>
+    <t>daro.ss@hubspot.com</t>
+  </si>
+  <si>
+    <t>thomasfunk@hubspot.com</t>
   </si>
 </sst>
 </file>
@@ -476,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E81392-AFC1-42D4-AAC2-A01739C81B07}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +647,152 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EED9E4-9762-40D8-B11D-66E02DD5793D}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BD339A0C-C54F-4179-B6ED-1C55B1361156}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{BA69630D-7F9B-4314-A269-3CBC8D8E046F}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{DE1C000A-3831-4561-A861-16C38A66E246}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{C1D7115E-3FB3-40DE-9362-B29F0E747C46}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{82CFDE6E-DEC0-4297-9AAA-D7A933D3282E}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{30AC138E-6C31-47AF-99A1-76C9C9126330}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010002A6DFF1C499E3429C9AA6BDECAB9AF4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4738c88b92600e3efbd4667327903481">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="a5a5d719-bdb2-4ce9-8622-1b1a75f02b8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3cbb90d1d1937544f63a901d336ad0ee" ns1:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -780,25 +973,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92EE0216-4C89-4763-A01B-A66A576ADA72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a5a5d719-bdb2-4ce9-8622-1b1a75f02b8d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7575C04E-D35F-412D-919D-B4B80E2D0D0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5C374F-E318-4364-A6BD-F80CDB61A3DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -815,29 +1015,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7575C04E-D35F-412D-919D-B4B80E2D0D0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92EE0216-4C89-4763-A01B-A66A576ADA72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a5a5d719-bdb2-4ce9-8622-1b1a75f02b8d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>